--- a/python/Statistics/Results/Seasonal_trends_RSTs_ERA_1979-2016.xlsx
+++ b/python/Statistics/Results/Seasonal_trends_RSTs_ERA_1979-2016.xlsx
@@ -18,12 +18,12 @@
     <sheet name="Central" sheetId="4" r:id="rId4"/>
     <sheet name="All RSTs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>DJF</t>
   </si>
@@ -168,7 +168,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'All RSTs'!$A$2</c:f>
+              <c:f>NO_RSTs!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -191,7 +191,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:f>NO_RSTs!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
@@ -314,123 +314,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All RSTs'!$B$2:$AM$2</c:f>
+              <c:f>NO_RSTs!$B$2:$AM$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>33</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,7 +438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FCD-47D3-B376-C9B86599EE1B}"/>
+              <c16:uniqueId val="{00000000-EBA5-4955-B953-2CB71BEB006B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -447,7 +447,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'All RSTs'!$A$3</c:f>
+              <c:f>NO_RSTs!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -470,7 +470,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:f>NO_RSTs!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
@@ -593,123 +593,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All RSTs'!$B$3:$AM$3</c:f>
+              <c:f>NO_RSTs!$B$3:$AM$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9FCD-47D3-B376-C9B86599EE1B}"/>
+              <c16:uniqueId val="{00000001-EBA5-4955-B953-2CB71BEB006B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -726,7 +726,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'All RSTs'!$A$4</c:f>
+              <c:f>NO_RSTs!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +749,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:f>NO_RSTs!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
@@ -872,120 +872,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All RSTs'!$B$4:$AM$4</c:f>
+              <c:f>NO_RSTs!$B$4:$AM$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +996,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9FCD-47D3-B376-C9B86599EE1B}"/>
+              <c16:uniqueId val="{00000002-EBA5-4955-B953-2CB71BEB006B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1002,7 +1005,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'All RSTs'!$A$5</c:f>
+              <c:f>NO_RSTs!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1025,7 +1028,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:f>NO_RSTs!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1148,123 +1151,123 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'All RSTs'!$B$5:$AM$5</c:f>
+              <c:f>NO_RSTs!$B$5:$AM$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1275,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9FCD-47D3-B376-C9B86599EE1B}"/>
+              <c16:uniqueId val="{00000003-EBA5-4955-B953-2CB71BEB006B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1285,11 +1288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1183047792"/>
-        <c:axId val="1173214208"/>
+        <c:axId val="602685456"/>
+        <c:axId val="347630400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1183047792"/>
+        <c:axId val="602685456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1173214208"/>
+        <c:crossAx val="347630400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1173214208"/>
+        <c:axId val="347630400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1394,1580 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1183047792"/>
+        <c:crossAx val="602685456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'All RSTs'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DJF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6813670823335816E-2"/>
+                  <c:y val="-0.22170537227150403"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'All RSTs'!$B$2:$AM$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA55-4A65-AA9B-00B929FE0153}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="508413664"/>
+        <c:axId val="347661504"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MAM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="0"/>
+                </c:trendline>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="0"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-3.8244285987856667E-2"/>
+                        <c:y val="-0.28766022126980961"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$B$1:$AM$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="38"/>
+                      <c:pt idx="0">
+                        <c:v>1979</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1981</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1982</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1983</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1985</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1986</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1988</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1989</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1992</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1993</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1994</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$B$3:$AM$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="38"/>
+                      <c:pt idx="0">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>18</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-BA55-4A65-AA9B-00B929FE0153}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>JJA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$B$1:$AM$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="38"/>
+                      <c:pt idx="0">
+                        <c:v>1979</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1981</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1982</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1983</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1985</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1986</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1988</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1989</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1992</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1993</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1994</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$B$4:$AM$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="38"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-BA55-4A65-AA9B-00B929FE0153}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SON</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="0"/>
+                </c:trendline>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="0"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-8.0075473398443217E-2"/>
+                        <c:y val="-0.24046546396890262"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$B$1:$AM$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="38"/>
+                      <c:pt idx="0">
+                        <c:v>1979</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1981</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1982</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1983</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1984</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1985</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1986</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1987</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1988</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1989</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1992</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1993</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1994</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'All RSTs'!$B$5:$AM$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="38"/>
+                      <c:pt idx="0">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BA55-4A65-AA9B-00B929FE0153}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="508413664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347661504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347661504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508413664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1479,6 +3055,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2034,27 +3650,584 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1F9DF8-68A1-4663-A34A-EB0ABD5B23EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056304A9-03E1-4772-9302-552F112C0F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1C641B-E55B-43A2-B668-6521A09A8FD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,118 +4663,118 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>73</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>65</v>
+      </c>
+      <c r="K2">
+        <v>74</v>
+      </c>
+      <c r="L2">
+        <v>70</v>
+      </c>
+      <c r="M2">
+        <v>65</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="O2">
+        <v>70</v>
+      </c>
+      <c r="P2">
+        <v>67</v>
+      </c>
+      <c r="Q2">
+        <v>77</v>
+      </c>
+      <c r="R2">
+        <v>60</v>
+      </c>
+      <c r="S2">
+        <v>72</v>
+      </c>
+      <c r="T2">
+        <v>70</v>
+      </c>
+      <c r="U2">
+        <v>66</v>
+      </c>
+      <c r="V2">
+        <v>57</v>
+      </c>
+      <c r="W2">
+        <v>65</v>
+      </c>
+      <c r="X2">
+        <v>73</v>
+      </c>
+      <c r="Y2">
+        <v>63</v>
+      </c>
+      <c r="Z2">
         <v>68</v>
       </c>
-      <c r="C2">
-        <v>54</v>
-      </c>
-      <c r="D2">
+      <c r="AA2">
+        <v>70</v>
+      </c>
+      <c r="AB2">
+        <v>61</v>
+      </c>
+      <c r="AC2">
+        <v>59</v>
+      </c>
+      <c r="AD2">
+        <v>62</v>
+      </c>
+      <c r="AE2">
+        <v>61</v>
+      </c>
+      <c r="AF2">
+        <v>76</v>
+      </c>
+      <c r="AG2">
+        <v>69</v>
+      </c>
+      <c r="AH2">
+        <v>65</v>
+      </c>
+      <c r="AI2">
+        <v>71</v>
+      </c>
+      <c r="AJ2">
+        <v>75</v>
+      </c>
+      <c r="AK2">
+        <v>65</v>
+      </c>
+      <c r="AL2">
         <v>68</v>
       </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>42</v>
-      </c>
-      <c r="H2">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>59</v>
-      </c>
-      <c r="J2">
-        <v>59</v>
-      </c>
-      <c r="K2">
-        <v>61</v>
-      </c>
-      <c r="L2">
-        <v>45</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-      <c r="N2">
-        <v>51</v>
-      </c>
-      <c r="O2">
-        <v>65</v>
-      </c>
-      <c r="P2">
-        <v>44</v>
-      </c>
-      <c r="Q2">
-        <v>58</v>
-      </c>
-      <c r="R2">
-        <v>38</v>
-      </c>
-      <c r="S2">
-        <v>64</v>
-      </c>
-      <c r="T2">
-        <v>59</v>
-      </c>
-      <c r="U2">
-        <v>57</v>
-      </c>
-      <c r="V2">
-        <v>40</v>
-      </c>
-      <c r="W2">
-        <v>51</v>
-      </c>
-      <c r="X2">
-        <v>57</v>
-      </c>
-      <c r="Y2">
-        <v>54</v>
-      </c>
-      <c r="Z2">
-        <v>63</v>
-      </c>
-      <c r="AA2">
-        <v>59</v>
-      </c>
-      <c r="AB2">
-        <v>55</v>
-      </c>
-      <c r="AC2">
-        <v>48</v>
-      </c>
-      <c r="AD2">
-        <v>52</v>
-      </c>
-      <c r="AE2">
-        <v>48</v>
-      </c>
-      <c r="AF2">
-        <v>70</v>
-      </c>
-      <c r="AG2">
-        <v>65</v>
-      </c>
-      <c r="AH2">
-        <v>52</v>
-      </c>
-      <c r="AI2">
-        <v>68</v>
-      </c>
-      <c r="AJ2">
-        <v>61</v>
-      </c>
-      <c r="AK2">
-        <v>52</v>
-      </c>
-      <c r="AL2">
-        <v>54</v>
-      </c>
       <c r="AM2">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -2609,115 +4782,115 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F3">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <v>81</v>
+      </c>
+      <c r="K3">
+        <v>78</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3">
+        <v>76</v>
+      </c>
+      <c r="N3">
+        <v>78</v>
+      </c>
+      <c r="O3">
+        <v>83</v>
+      </c>
+      <c r="P3">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>81</v>
+      </c>
+      <c r="R3">
+        <v>77</v>
+      </c>
+      <c r="S3">
+        <v>81</v>
+      </c>
+      <c r="T3">
+        <v>79</v>
+      </c>
+      <c r="U3">
+        <v>74</v>
+      </c>
+      <c r="V3">
         <v>73</v>
       </c>
-      <c r="G3">
-        <v>69</v>
-      </c>
-      <c r="H3">
-        <v>63</v>
-      </c>
-      <c r="I3">
-        <v>65</v>
-      </c>
-      <c r="J3">
+      <c r="W3">
+        <v>80</v>
+      </c>
+      <c r="X3">
+        <v>75</v>
+      </c>
+      <c r="Y3">
+        <v>80</v>
+      </c>
+      <c r="Z3">
         <v>73</v>
       </c>
-      <c r="K3">
-        <v>63</v>
-      </c>
-      <c r="L3">
-        <v>62</v>
-      </c>
-      <c r="M3">
-        <v>68</v>
-      </c>
-      <c r="N3">
+      <c r="AA3">
+        <v>83</v>
+      </c>
+      <c r="AB3">
+        <v>81</v>
+      </c>
+      <c r="AC3">
+        <v>82</v>
+      </c>
+      <c r="AD3">
+        <v>76</v>
+      </c>
+      <c r="AE3">
+        <v>80</v>
+      </c>
+      <c r="AF3">
+        <v>84</v>
+      </c>
+      <c r="AG3">
+        <v>81</v>
+      </c>
+      <c r="AH3">
+        <v>81</v>
+      </c>
+      <c r="AI3">
+        <v>82</v>
+      </c>
+      <c r="AJ3">
+        <v>79</v>
+      </c>
+      <c r="AK3">
         <v>75</v>
       </c>
-      <c r="O3">
-        <v>67</v>
-      </c>
-      <c r="P3">
-        <v>72</v>
-      </c>
-      <c r="Q3">
-        <v>71</v>
-      </c>
-      <c r="R3">
-        <v>66</v>
-      </c>
-      <c r="S3">
-        <v>79</v>
-      </c>
-      <c r="T3">
-        <v>66</v>
-      </c>
-      <c r="U3">
-        <v>66</v>
-      </c>
-      <c r="V3">
-        <v>67</v>
-      </c>
-      <c r="W3">
-        <v>72</v>
-      </c>
-      <c r="X3">
-        <v>65</v>
-      </c>
-      <c r="Y3">
-        <v>74</v>
-      </c>
-      <c r="Z3">
-        <v>68</v>
-      </c>
-      <c r="AA3">
-        <v>67</v>
-      </c>
-      <c r="AB3">
-        <v>72</v>
-      </c>
-      <c r="AC3">
-        <v>77</v>
-      </c>
-      <c r="AD3">
-        <v>75</v>
-      </c>
-      <c r="AE3">
-        <v>75</v>
-      </c>
-      <c r="AF3">
-        <v>78</v>
-      </c>
-      <c r="AG3">
-        <v>72</v>
-      </c>
-      <c r="AH3">
-        <v>76</v>
-      </c>
-      <c r="AI3">
-        <v>74</v>
-      </c>
-      <c r="AJ3">
-        <v>75</v>
-      </c>
-      <c r="AK3">
-        <v>69</v>
-      </c>
       <c r="AL3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AM3">
         <v>74</v>
@@ -2728,118 +4901,118 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I4">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <v>91</v>
+      </c>
+      <c r="L4">
+        <v>92</v>
+      </c>
+      <c r="M4">
+        <v>92</v>
+      </c>
+      <c r="N4">
+        <v>92</v>
+      </c>
+      <c r="O4">
+        <v>91</v>
+      </c>
+      <c r="P4">
         <v>89</v>
       </c>
-      <c r="J4">
-        <v>86</v>
-      </c>
-      <c r="K4">
-        <v>85</v>
-      </c>
-      <c r="L4">
-        <v>87</v>
-      </c>
-      <c r="M4">
-        <v>86</v>
-      </c>
-      <c r="N4">
-        <v>90</v>
-      </c>
-      <c r="O4">
-        <v>87</v>
-      </c>
-      <c r="P4">
-        <v>83</v>
-      </c>
       <c r="Q4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S4">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="T4">
+        <v>92</v>
+      </c>
+      <c r="U4">
         <v>91</v>
-      </c>
-      <c r="U4">
-        <v>89</v>
       </c>
       <c r="V4">
         <v>91</v>
       </c>
       <c r="W4">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="X4">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z4">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AA4">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AB4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AC4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF4">
         <v>91</v>
       </c>
       <c r="AG4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH4">
         <v>92</v>
       </c>
       <c r="AI4">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AJ4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL4">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AM4">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -2847,714 +5020,506 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F5">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>72</v>
+      </c>
+      <c r="K5">
+        <v>77</v>
+      </c>
+      <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="M5">
+        <v>75</v>
+      </c>
+      <c r="N5">
+        <v>77</v>
+      </c>
+      <c r="O5">
+        <v>78</v>
+      </c>
+      <c r="P5">
+        <v>73</v>
+      </c>
+      <c r="Q5">
+        <v>70</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>70</v>
+      </c>
+      <c r="T5">
+        <v>71</v>
+      </c>
+      <c r="U5">
+        <v>74</v>
+      </c>
+      <c r="V5">
+        <v>84</v>
+      </c>
+      <c r="W5">
+        <v>73</v>
+      </c>
+      <c r="X5">
+        <v>80</v>
+      </c>
+      <c r="Y5">
+        <v>76</v>
+      </c>
+      <c r="Z5">
+        <v>74</v>
+      </c>
+      <c r="AA5">
+        <v>70</v>
+      </c>
+      <c r="AB5">
+        <v>70</v>
+      </c>
+      <c r="AC5">
+        <v>74</v>
+      </c>
+      <c r="AD5">
+        <v>77</v>
+      </c>
+      <c r="AE5">
+        <v>79</v>
+      </c>
+      <c r="AF5">
+        <v>78</v>
+      </c>
+      <c r="AG5">
         <v>68</v>
       </c>
-      <c r="G5">
-        <v>51</v>
-      </c>
-      <c r="H5">
-        <v>52</v>
-      </c>
-      <c r="I5">
-        <v>61</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>59</v>
-      </c>
-      <c r="L5">
-        <v>62</v>
-      </c>
-      <c r="M5">
-        <v>57</v>
-      </c>
-      <c r="N5">
-        <v>58</v>
-      </c>
-      <c r="O5">
-        <v>50</v>
-      </c>
-      <c r="P5">
-        <v>48</v>
-      </c>
-      <c r="Q5">
-        <v>58</v>
-      </c>
-      <c r="R5">
-        <v>57</v>
-      </c>
-      <c r="S5">
-        <v>62</v>
-      </c>
-      <c r="T5">
-        <v>56</v>
-      </c>
-      <c r="U5">
-        <v>60</v>
-      </c>
-      <c r="V5">
-        <v>66</v>
-      </c>
-      <c r="W5">
-        <v>58</v>
-      </c>
-      <c r="X5">
+      <c r="AH5">
+        <v>82</v>
+      </c>
+      <c r="AI5">
         <v>73</v>
       </c>
-      <c r="Y5">
-        <v>59</v>
-      </c>
-      <c r="Z5">
-        <v>61</v>
-      </c>
-      <c r="AA5">
-        <v>57</v>
-      </c>
-      <c r="AB5">
-        <v>61</v>
-      </c>
-      <c r="AC5">
-        <v>60</v>
-      </c>
-      <c r="AD5">
-        <v>63</v>
-      </c>
-      <c r="AE5">
-        <v>71</v>
-      </c>
-      <c r="AF5">
-        <v>66</v>
-      </c>
-      <c r="AG5">
-        <v>61</v>
-      </c>
-      <c r="AH5">
+      <c r="AJ5">
+        <v>72</v>
+      </c>
+      <c r="AK5">
+        <v>80</v>
+      </c>
+      <c r="AL5">
         <v>74</v>
       </c>
-      <c r="AI5">
-        <v>57</v>
-      </c>
-      <c r="AJ5">
-        <v>56</v>
-      </c>
-      <c r="AK5">
-        <v>72</v>
-      </c>
-      <c r="AL5">
-        <v>58</v>
-      </c>
       <c r="AM5">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="B2:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>1979</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1980</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1981</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1982</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1983</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1984</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1985</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1986</v>
-      </c>
-      <c r="J1" s="2">
-        <v>1987</v>
-      </c>
-      <c r="K1" s="2">
-        <v>1988</v>
-      </c>
-      <c r="L1" s="2">
-        <v>1989</v>
-      </c>
-      <c r="M1" s="2">
-        <v>1990</v>
-      </c>
-      <c r="N1" s="2">
-        <v>1991</v>
-      </c>
-      <c r="O1" s="2">
-        <v>1992</v>
-      </c>
-      <c r="P1" s="2">
-        <v>1993</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>1994</v>
-      </c>
-      <c r="R1" s="2">
-        <v>1995</v>
-      </c>
-      <c r="S1" s="2">
-        <v>1996</v>
-      </c>
-      <c r="T1" s="2">
-        <v>1997</v>
-      </c>
-      <c r="U1" s="2">
-        <v>1998</v>
-      </c>
-      <c r="V1" s="2">
-        <v>1999</v>
-      </c>
-      <c r="W1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>2016</v>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>15</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>9</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>9</v>
+      </c>
+      <c r="AC2">
+        <v>17</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2">
+        <v>6</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>10</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
+        <v>8</v>
+      </c>
+      <c r="AL2">
+        <v>6</v>
+      </c>
+      <c r="AM2">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>36</v>
-      </c>
-      <c r="M2">
-        <v>27</v>
-      </c>
-      <c r="N2">
-        <v>33</v>
-      </c>
-      <c r="O2">
-        <v>21</v>
-      </c>
-      <c r="P2">
-        <v>32</v>
-      </c>
-      <c r="Q2">
-        <v>22</v>
-      </c>
-      <c r="R2">
-        <v>42</v>
-      </c>
-      <c r="S2">
-        <v>17</v>
-      </c>
-      <c r="T2">
-        <v>22</v>
-      </c>
-      <c r="U2">
-        <v>22</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>28</v>
-      </c>
-      <c r="X2">
-        <v>24</v>
-      </c>
-      <c r="Y2">
-        <v>19</v>
-      </c>
-      <c r="Z2">
-        <v>12</v>
-      </c>
-      <c r="AA2">
-        <v>15</v>
-      </c>
-      <c r="AB2">
-        <v>20</v>
-      </c>
-      <c r="AC2">
-        <v>21</v>
-      </c>
-      <c r="AD2">
-        <v>31</v>
-      </c>
-      <c r="AE2">
-        <v>22</v>
-      </c>
-      <c r="AF2">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="AG2">
-        <v>12</v>
-      </c>
-      <c r="AH2">
-        <v>30</v>
-      </c>
-      <c r="AI2">
-        <v>15</v>
-      </c>
-      <c r="AJ2">
-        <v>19</v>
-      </c>
-      <c r="AK2">
-        <v>27</v>
-      </c>
-      <c r="AL2">
-        <v>23</v>
-      </c>
-      <c r="AM2">
-        <v>24</v>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>19</v>
-      </c>
-      <c r="P3">
-        <v>18</v>
-      </c>
-      <c r="Q3">
-        <v>14</v>
-      </c>
-      <c r="R3">
-        <v>19</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>21</v>
-      </c>
-      <c r="U3">
-        <v>13</v>
-      </c>
-      <c r="V3">
-        <v>18</v>
-      </c>
-      <c r="W3">
-        <v>15</v>
-      </c>
-      <c r="X3">
-        <v>16</v>
-      </c>
-      <c r="Y3">
-        <v>11</v>
-      </c>
-      <c r="Z3">
-        <v>15</v>
-      </c>
-      <c r="AA3">
-        <v>17</v>
-      </c>
-      <c r="AB3">
-        <v>16</v>
-      </c>
-      <c r="AC3">
-        <v>10</v>
-      </c>
-      <c r="AD3">
-        <v>14</v>
-      </c>
-      <c r="AE3">
-        <v>9</v>
-      </c>
-      <c r="AF3">
-        <v>10</v>
-      </c>
-      <c r="AG3">
-        <v>14</v>
-      </c>
-      <c r="AH3">
-        <v>10</v>
-      </c>
-      <c r="AI3">
-        <v>15</v>
-      </c>
-      <c r="AJ3">
-        <v>13</v>
-      </c>
-      <c r="AK3">
-        <v>15</v>
-      </c>
-      <c r="AL3">
-        <v>17</v>
-      </c>
-      <c r="AM3">
-        <v>9</v>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>3</v>
       </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
+      <c r="AF5">
         <v>4</v>
       </c>
-      <c r="R4">
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
         <v>2</v>
       </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="U4">
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
         <v>3</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>8</v>
-      </c>
-      <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
+      <c r="AM5">
         <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>7</v>
-      </c>
-      <c r="AB4">
-        <v>4</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
-      <c r="AI4">
-        <v>6</v>
-      </c>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AL4">
-        <v>6</v>
-      </c>
-      <c r="AM4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>27</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>27</v>
-      </c>
-      <c r="L5">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>21</v>
-      </c>
-      <c r="N5">
-        <v>23</v>
-      </c>
-      <c r="O5">
-        <v>26</v>
-      </c>
-      <c r="P5">
-        <v>27</v>
-      </c>
-      <c r="Q5">
-        <v>20</v>
-      </c>
-      <c r="R5">
-        <v>28</v>
-      </c>
-      <c r="S5">
-        <v>9</v>
-      </c>
-      <c r="T5">
-        <v>18</v>
-      </c>
-      <c r="U5">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>16</v>
-      </c>
-      <c r="W5">
-        <v>17</v>
-      </c>
-      <c r="X5">
-        <v>13</v>
-      </c>
-      <c r="Y5">
-        <v>15</v>
-      </c>
-      <c r="Z5">
-        <v>18</v>
-      </c>
-      <c r="AA5">
-        <v>23</v>
-      </c>
-      <c r="AB5">
-        <v>20</v>
-      </c>
-      <c r="AC5">
-        <v>21</v>
-      </c>
-      <c r="AD5">
-        <v>23</v>
-      </c>
-      <c r="AE5">
-        <v>13</v>
-      </c>
-      <c r="AF5">
-        <v>13</v>
-      </c>
-      <c r="AG5">
-        <v>14</v>
-      </c>
-      <c r="AH5">
-        <v>14</v>
-      </c>
-      <c r="AI5">
-        <v>22</v>
-      </c>
-      <c r="AJ5">
-        <v>22</v>
-      </c>
-      <c r="AK5">
-        <v>11</v>
-      </c>
-      <c r="AL5">
-        <v>16</v>
-      </c>
-      <c r="AM5">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3564,146 +5529,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="B2:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>1979</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1980</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1981</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1982</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1983</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1984</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1985</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1986</v>
-      </c>
-      <c r="J1" s="2">
-        <v>1987</v>
-      </c>
-      <c r="K1" s="2">
-        <v>1988</v>
-      </c>
-      <c r="L1" s="2">
-        <v>1989</v>
-      </c>
-      <c r="M1" s="2">
-        <v>1990</v>
-      </c>
-      <c r="N1" s="2">
-        <v>1991</v>
-      </c>
-      <c r="O1" s="2">
-        <v>1992</v>
-      </c>
-      <c r="P1" s="2">
-        <v>1993</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>1994</v>
-      </c>
-      <c r="R1" s="2">
-        <v>1995</v>
-      </c>
-      <c r="S1" s="2">
-        <v>1996</v>
-      </c>
-      <c r="T1" s="2">
-        <v>1997</v>
-      </c>
-      <c r="U1" s="2">
-        <v>1998</v>
-      </c>
-      <c r="V1" s="2">
-        <v>1999</v>
-      </c>
-      <c r="W1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -3712,67 +5558,76 @@
         <v>4</v>
       </c>
       <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
         <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3</v>
       </c>
       <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
         <v>4</v>
       </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
         <v>1</v>
       </c>
       <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
         <v>5</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>9</v>
-      </c>
       <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2">
+        <v>4</v>
+      </c>
+      <c r="AG2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
         <v>2</v>
       </c>
-      <c r="AC2">
-        <v>5</v>
-      </c>
-      <c r="AD2">
-        <v>3</v>
-      </c>
-      <c r="AE2">
-        <v>9</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
+      <c r="AI2">
+        <v>4</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -3781,150 +5636,201 @@
         <v>1</v>
       </c>
       <c r="AL2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="P3">
+        <v>3</v>
       </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>1</v>
+      <c r="T3">
+        <v>2</v>
       </c>
       <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
         <v>2</v>
       </c>
-      <c r="V3">
+      <c r="AG3">
         <v>2</v>
       </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
       <c r="AH3">
         <v>1</v>
       </c>
       <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="K5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>3</v>
       </c>
       <c r="Y5">
@@ -3933,41 +5839,35 @@
       <c r="Z5">
         <v>2</v>
       </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
       <c r="AB5">
         <v>2</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
         <v>2</v>
       </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
       <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <v>4</v>
+      </c>
+      <c r="AM5">
         <v>2</v>
-      </c>
-      <c r="AJ5">
-        <v>2</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3977,194 +5877,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="B2:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>1979</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1980</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1981</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1982</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1983</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1984</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1985</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1986</v>
-      </c>
-      <c r="J1" s="2">
-        <v>1987</v>
-      </c>
-      <c r="K1" s="2">
-        <v>1988</v>
-      </c>
-      <c r="L1" s="2">
-        <v>1989</v>
-      </c>
-      <c r="M1" s="2">
-        <v>1990</v>
-      </c>
-      <c r="N1" s="2">
-        <v>1991</v>
-      </c>
-      <c r="O1" s="2">
-        <v>1992</v>
-      </c>
-      <c r="P1" s="2">
-        <v>1993</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>1994</v>
-      </c>
-      <c r="R1" s="2">
-        <v>1995</v>
-      </c>
-      <c r="S1" s="2">
-        <v>1996</v>
-      </c>
-      <c r="T1" s="2">
-        <v>1997</v>
-      </c>
-      <c r="U1" s="2">
-        <v>1998</v>
-      </c>
-      <c r="V1" s="2">
-        <v>1999</v>
-      </c>
-      <c r="W1" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X1" s="2">
-        <v>2001</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>2002</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>2003</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>2004</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>2005</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="AM1" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="S2">
         <v>9</v>
       </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>9</v>
-      </c>
-      <c r="Q2">
-        <v>6</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <v>7</v>
-      </c>
       <c r="U2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V2">
         <v>19</v>
@@ -4173,224 +5951,197 @@
         <v>9</v>
       </c>
       <c r="X2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB2">
+        <v>14</v>
+      </c>
+      <c r="AC2">
         <v>12</v>
       </c>
-      <c r="AC2">
-        <v>15</v>
-      </c>
       <c r="AD2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF2">
         <v>10</v>
       </c>
       <c r="AG2">
+        <v>15</v>
+      </c>
+      <c r="AH2">
         <v>12</v>
       </c>
-      <c r="AH2">
-        <v>6</v>
-      </c>
       <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
         <v>7</v>
       </c>
-      <c r="AJ2">
-        <v>6</v>
-      </c>
       <c r="AK2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AL2">
+        <v>11</v>
+      </c>
+      <c r="AM2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="AM2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
       <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
       <c r="U3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC3">
         <v>4</v>
       </c>
       <c r="AD3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE3">
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
         <v>7</v>
       </c>
-      <c r="AF3">
-        <v>3</v>
-      </c>
-      <c r="AG3">
-        <v>6</v>
-      </c>
       <c r="AH3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI3">
+        <v>7</v>
+      </c>
+      <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>10</v>
+      </c>
+      <c r="AM3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="AJ3">
-        <v>4</v>
-      </c>
-      <c r="AK3">
-        <v>8</v>
-      </c>
-      <c r="AL3">
-        <v>8</v>
-      </c>
-      <c r="AM3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -4401,55 +6152,46 @@
       <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
       <c r="AL4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
       <c r="J5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <v>12</v>
@@ -4458,79 +6200,79 @@
         <v>10</v>
       </c>
       <c r="O5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
         <v>15</v>
-      </c>
-      <c r="Q5">
-        <v>11</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>19</v>
       </c>
       <c r="T5">
         <v>14</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W5">
+        <v>14</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <v>14</v>
+      </c>
+      <c r="AB5">
+        <v>17</v>
+      </c>
+      <c r="AC5">
         <v>16</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>12</v>
+      </c>
+      <c r="AF5">
+        <v>8</v>
+      </c>
+      <c r="AG5">
+        <v>18</v>
+      </c>
+      <c r="AH5">
         <v>5</v>
       </c>
-      <c r="Y5">
-        <v>14</v>
-      </c>
-      <c r="Z5">
-        <v>10</v>
-      </c>
-      <c r="AA5">
-        <v>11</v>
-      </c>
-      <c r="AB5">
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <v>7</v>
-      </c>
-      <c r="AD5">
-        <v>4</v>
-      </c>
-      <c r="AE5">
-        <v>5</v>
-      </c>
-      <c r="AF5">
-        <v>11</v>
-      </c>
-      <c r="AG5">
-        <v>15</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
       <c r="AI5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AK5">
         <v>7</v>
       </c>
       <c r="AL5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AM5">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +6285,7 @@
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,118 +6412,118 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>23</v>
+      </c>
+      <c r="V2">
+        <v>32</v>
+      </c>
+      <c r="W2">
+        <v>25</v>
+      </c>
+      <c r="X2">
+        <v>16</v>
+      </c>
+      <c r="Y2">
+        <v>26</v>
+      </c>
+      <c r="Z2">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>28</v>
+      </c>
+      <c r="AC2">
+        <v>30</v>
+      </c>
+      <c r="AD2">
+        <v>27</v>
+      </c>
+      <c r="AE2">
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <v>13</v>
+      </c>
+      <c r="AG2">
+        <v>20</v>
+      </c>
+      <c r="AH2">
+        <v>24</v>
+      </c>
+      <c r="AI2">
+        <v>19</v>
+      </c>
+      <c r="AJ2">
+        <v>14</v>
+      </c>
+      <c r="AK2">
+        <v>24</v>
+      </c>
+      <c r="AL2">
         <v>21</v>
       </c>
-      <c r="E2">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>38</v>
-      </c>
-      <c r="G2">
-        <v>48</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>29</v>
-      </c>
-      <c r="L2">
-        <v>44</v>
-      </c>
-      <c r="M2">
-        <v>39</v>
-      </c>
-      <c r="N2">
-        <v>38</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>45</v>
-      </c>
-      <c r="Q2">
-        <v>31</v>
-      </c>
-      <c r="R2">
-        <v>51</v>
-      </c>
-      <c r="S2">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>30</v>
-      </c>
-      <c r="U2">
-        <v>32</v>
-      </c>
-      <c r="V2">
-        <v>49</v>
-      </c>
-      <c r="W2">
-        <v>39</v>
-      </c>
-      <c r="X2">
-        <v>32</v>
-      </c>
-      <c r="Y2">
-        <v>35</v>
-      </c>
-      <c r="Z2">
-        <v>26</v>
-      </c>
-      <c r="AA2">
-        <v>31</v>
-      </c>
-      <c r="AB2">
-        <v>34</v>
-      </c>
-      <c r="AC2">
-        <v>41</v>
-      </c>
-      <c r="AD2">
-        <v>37</v>
-      </c>
-      <c r="AE2">
-        <v>42</v>
-      </c>
-      <c r="AF2">
-        <v>19</v>
-      </c>
-      <c r="AG2">
-        <v>24</v>
-      </c>
-      <c r="AH2">
-        <v>37</v>
-      </c>
-      <c r="AI2">
-        <v>22</v>
-      </c>
-      <c r="AJ2">
-        <v>28</v>
-      </c>
-      <c r="AK2">
-        <v>37</v>
-      </c>
-      <c r="AL2">
-        <v>35</v>
-      </c>
       <c r="AM2">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -4789,115 +6531,115 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>13</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
         <v>19</v>
       </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>29</v>
-      </c>
-      <c r="I3">
-        <v>27</v>
-      </c>
-      <c r="J3">
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="X3">
+        <v>17</v>
+      </c>
+      <c r="Y3">
+        <v>12</v>
+      </c>
+      <c r="Z3">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3">
-        <v>24</v>
-      </c>
-      <c r="N3">
+      <c r="AA3">
+        <v>9</v>
+      </c>
+      <c r="AB3">
+        <v>11</v>
+      </c>
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
+        <v>16</v>
+      </c>
+      <c r="AE3">
+        <v>12</v>
+      </c>
+      <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>11</v>
+      </c>
+      <c r="AH3">
+        <v>11</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>13</v>
+      </c>
+      <c r="AK3">
         <v>17</v>
       </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
-      <c r="Q3">
-        <v>21</v>
-      </c>
-      <c r="R3">
-        <v>26</v>
-      </c>
-      <c r="S3">
-        <v>13</v>
-      </c>
-      <c r="T3">
-        <v>26</v>
-      </c>
-      <c r="U3">
-        <v>26</v>
-      </c>
-      <c r="V3">
-        <v>25</v>
-      </c>
-      <c r="W3">
-        <v>20</v>
-      </c>
-      <c r="X3">
-        <v>27</v>
-      </c>
-      <c r="Y3">
-        <v>18</v>
-      </c>
-      <c r="Z3">
-        <v>24</v>
-      </c>
-      <c r="AA3">
-        <v>25</v>
-      </c>
-      <c r="AB3">
-        <v>20</v>
-      </c>
-      <c r="AC3">
-        <v>15</v>
-      </c>
-      <c r="AD3">
-        <v>17</v>
-      </c>
-      <c r="AE3">
-        <v>17</v>
-      </c>
-      <c r="AF3">
-        <v>14</v>
-      </c>
-      <c r="AG3">
-        <v>20</v>
-      </c>
-      <c r="AH3">
-        <v>16</v>
-      </c>
-      <c r="AI3">
-        <v>18</v>
-      </c>
-      <c r="AJ3">
-        <v>17</v>
-      </c>
-      <c r="AK3">
-        <v>23</v>
-      </c>
       <c r="AL3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AM3">
         <v>18</v>
@@ -4908,115 +6650,67 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
       <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
         <v>2</v>
       </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>9</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
         <v>3</v>
       </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
+      <c r="AI4">
         <v>3</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>10</v>
-      </c>
-      <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <v>6</v>
-      </c>
-      <c r="Z4">
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
         <v>4</v>
-      </c>
-      <c r="AA4">
-        <v>9</v>
-      </c>
-      <c r="AB4">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>4</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>6</v>
-      </c>
-      <c r="AI4">
-        <v>8</v>
-      </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>8</v>
-      </c>
-      <c r="AM4">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -5024,118 +6718,118 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>21</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>21</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>17</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>18</v>
+      </c>
+      <c r="X5">
+        <v>11</v>
+      </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5">
+        <v>17</v>
+      </c>
+      <c r="AA5">
+        <v>21</v>
+      </c>
+      <c r="AB5">
+        <v>21</v>
+      </c>
+      <c r="AC5">
+        <v>17</v>
+      </c>
+      <c r="AD5">
+        <v>14</v>
+      </c>
+      <c r="AE5">
+        <v>12</v>
+      </c>
+      <c r="AF5">
+        <v>13</v>
+      </c>
+      <c r="AG5">
         <v>23</v>
       </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>32</v>
-      </c>
-      <c r="L5">
-        <v>29</v>
-      </c>
-      <c r="M5">
-        <v>34</v>
-      </c>
-      <c r="N5">
-        <v>33</v>
-      </c>
-      <c r="O5">
-        <v>41</v>
-      </c>
-      <c r="P5">
-        <v>43</v>
-      </c>
-      <c r="Q5">
-        <v>33</v>
-      </c>
-      <c r="R5">
-        <v>34</v>
-      </c>
-      <c r="S5">
-        <v>29</v>
-      </c>
-      <c r="T5">
-        <v>35</v>
-      </c>
-      <c r="U5">
-        <v>31</v>
-      </c>
-      <c r="V5">
-        <v>25</v>
-      </c>
-      <c r="W5">
-        <v>33</v>
-      </c>
-      <c r="X5">
+      <c r="AH5">
+        <v>9</v>
+      </c>
+      <c r="AI5">
         <v>18</v>
       </c>
-      <c r="Y5">
-        <v>32</v>
-      </c>
-      <c r="Z5">
-        <v>30</v>
-      </c>
-      <c r="AA5">
-        <v>34</v>
-      </c>
-      <c r="AB5">
-        <v>30</v>
-      </c>
-      <c r="AC5">
-        <v>31</v>
-      </c>
-      <c r="AD5">
-        <v>28</v>
-      </c>
-      <c r="AE5">
-        <v>20</v>
-      </c>
-      <c r="AF5">
-        <v>25</v>
-      </c>
-      <c r="AG5">
-        <v>30</v>
-      </c>
-      <c r="AH5">
+      <c r="AJ5">
+        <v>19</v>
+      </c>
+      <c r="AK5">
+        <v>11</v>
+      </c>
+      <c r="AL5">
         <v>17</v>
       </c>
-      <c r="AI5">
-        <v>34</v>
-      </c>
-      <c r="AJ5">
-        <v>35</v>
-      </c>
-      <c r="AK5">
-        <v>19</v>
-      </c>
-      <c r="AL5">
-        <v>33</v>
-      </c>
       <c r="AM5">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
